--- a/Data/Ne photoelectron density - TDCASSCF - Filelist.xlsx
+++ b/Data/Ne photoelectron density - TDCASSCF - Filelist.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daehyun/Dropbox/FERMI 20144077 Ueda/Data/PADs TDCASSCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daehyun/Dropbox/FERMI 20144077 Ueda/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9F0F98-37BC-E840-9F20-F4EEC8E15160}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2953FF0-9EC2-2443-8B3F-4CB513253B6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54460" yWindow="-5460" windowWidth="30160" windowHeight="22060" activeTab="2" xr2:uid="{562EC86A-A47A-9C48-A576-D6B2209228A7}"/>
+    <workbookView xWindow="40000" yWindow="460" windowWidth="28420" windowHeight="21140" activeTab="2" xr2:uid="{562EC86A-A47A-9C48-A576-D6B2209228A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Filenames" sheetId="2" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="292">
   <si>
     <t>Filename</t>
   </si>
@@ -897,6 +898,18 @@
   </si>
   <si>
     <t>Ang (rad)</t>
+  </si>
+  <si>
+    <t>1H intensity (W/cm2)</t>
+  </si>
+  <si>
+    <t>2H intensity (W/cm2)</t>
+  </si>
+  <si>
+    <t>1H FWHM (fs)</t>
+  </si>
+  <si>
+    <t>2H FWHM (fs)</t>
   </si>
 </sst>
 </file>
@@ -935,10 +948,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,6 +974,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -968,9 +985,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1009,24 +1023,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CFCF237-4DA4-8A4C-800B-52F92BF7A4BA}" name="Table1" displayName="Table1" ref="A1:C13" totalsRowShown="0">
-  <autoFilter ref="A1:C13" xr:uid="{A842310E-E537-504A-97A0-3D92021C7046}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CFCF237-4DA4-8A4C-800B-52F92BF7A4BA}" name="Table1" displayName="Table1" ref="A1:G13" totalsRowShown="0">
+  <autoFilter ref="A1:G13" xr:uid="{A842310E-E537-504A-97A0-3D92021C7046}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{31B75CE6-8104-394E-8417-D644DBC70344}" name="Group"/>
-    <tableColumn id="2" xr3:uid="{3C0FD444-B105-8049-B549-EAB404021CBF}" name="Photon energy (eV)" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{3C0FD444-B105-8049-B549-EAB404021CBF}" name="Photon energy (eV)" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{E90B25A3-76B8-E04E-B108-CA0DD2A02229}" name="Is at resonance"/>
+    <tableColumn id="4" xr3:uid="{CCD7D717-C9AA-FF45-8BDD-7FFF94848AF0}" name="1H intensity (W/cm2)"/>
+    <tableColumn id="5" xr3:uid="{93F86AC6-0D2B-C245-826F-8F38DC61E057}" name="2H intensity (W/cm2)"/>
+    <tableColumn id="6" xr3:uid="{A912FB56-85B3-1C48-BAF0-9E31172ED60B}" name="1H FWHM (fs)"/>
+    <tableColumn id="7" xr3:uid="{DA61F33D-D995-7F48-8B22-0E1341ADBAA7}" name="2H FWHM (fs)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93552E49-43B0-7C42-8E20-3A56A8E0C9D2}" name="Table3" displayName="Table3" ref="A1:C25" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93552E49-43B0-7C42-8E20-3A56A8E0C9D2}" name="Table3" displayName="Table3" ref="A1:C25" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C25" xr:uid="{A4B7E1FA-6525-9942-B87C-12DC0FEB31E8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{33106633-143F-B14A-9522-C771454228E5}" name="Cos ang" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B5867157-79E4-364F-AE70-F1B29C5BBBA9}" name="Ang (rad)" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{43967FC5-24D7-8445-84F5-A93B356B50FD}" name="Weight" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{33106633-143F-B14A-9522-C771454228E5}" name="Cos ang" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B5867157-79E4-364F-AE70-F1B29C5BBBA9}" name="Ang (rad)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{43967FC5-24D7-8445-84F5-A93B356B50FD}" name="Weight" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1332,16 +1350,14 @@
   <dimension ref="A1:E268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="60.83203125" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -5910,19 +5926,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C616D19-572D-8F4D-8020-B62CBA200F6D}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="1" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>271</v>
       </c>
@@ -5932,8 +5947,20 @@
       <c r="C1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>272</v>
       </c>
@@ -5943,8 +5970,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>232000000</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>273</v>
       </c>
@@ -5954,8 +5993,20 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>282000000</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>274</v>
       </c>
@@ -5965,8 +6016,20 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>282000000</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>275</v>
       </c>
@@ -5976,8 +6039,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>118000000</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>283</v>
       </c>
@@ -5987,8 +6062,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>421000000</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>276</v>
       </c>
@@ -5998,8 +6085,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>282000000</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>277</v>
       </c>
@@ -6009,8 +6108,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>282000000</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>278</v>
       </c>
@@ -6020,8 +6131,20 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>282000000</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -6031,8 +6154,20 @@
       <c r="C10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>282000000</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>280</v>
       </c>
@@ -6042,8 +6177,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>282000000</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>281</v>
       </c>
@@ -6053,8 +6200,20 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>282000000</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>282</v>
       </c>
@@ -6064,10 +6223,22 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
+      <c r="D13" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>282000000</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C13">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6083,7 +6254,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6367,6 +6538,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
